--- a/data/transcriptions/transcription_ex14.xlsx
+++ b/data/transcriptions/transcription_ex14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D11C59-EE21-4204-B803-5A027F9EE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55891553-4011-ED4B-AE0B-4D9024E4EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_47_47_768" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Numéros de la consignation au sommier n'30</t>
   </si>
   <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
-  </si>
-  <si>
     <t>Arrêté le premier janvier 1920 Circoncision servais</t>
   </si>
   <si>
@@ -272,13 +263,22 @@
   </si>
   <si>
     <t>1/1920 1613/1920</t>
+  </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +304,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -335,17 +342,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -371,21 +367,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -461,119 +442,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,572 +843,572 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="T1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="6" t="s">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13">
+        <v>34842</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="14">
+        <v>34842</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="9">
+        <v>129</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="13">
+        <v>369</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1080</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="9">
+        <v>140</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="2"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="13">
+        <v>788782</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="14">
+        <v>788782</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="13">
         <v>34842</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="21">
-        <v>34842</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="16">
-        <v>129</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1615</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="14">
+        <v>1615</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="17">
+        <v>567</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="20">
-        <v>369</v>
-      </c>
-      <c r="I5" s="20">
-        <v>1080</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="9"/>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="16">
-        <v>140</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="2"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="13">
+        <v>9039</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="14">
+        <v>9039</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="17">
+        <v>126</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="16"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="2"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="9"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="16"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="20">
-        <v>788782</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="21">
-        <v>788782</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="20">
-        <v>34842</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1615</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="21">
-        <v>1615</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="24">
-        <v>567</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="9"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="20">
-        <v>9039</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21">
-        <v>9039</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="9"/>
-      <c r="N13" t="s">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="24">
-        <v>126</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="9"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="9"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="2"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
